--- a/excel.xlsx
+++ b/excel.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,206 +548,150 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1805</v>
+        <v>201</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98765678</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-02-22T12:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2020-02-22T12:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2020-02-22T12:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2020-02-22T15:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2020-02-22T12:30:00.000Z</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>single</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>boy</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>pardes hanah gilboa 11</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>meir</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>hebrew</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>3456787654</t>
+        </is>
+      </c>
+      <c r="W2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0547792925</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-03-21T21:31:00.000Z</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2020-03-21T08:37:18.718Z</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2020-03-20T07:05:00.000Z</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2020-03-22T06:00:00.000Z</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>נשוי/ה</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>תקומה 36</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>מהבית</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>ישראל</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>עברית</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0547792803</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr">
         <is>
-          <t>027787829</t>
+          <t>23456787</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>תקומה</t>
+          <t>pardes hanah gilboa 11</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>תקומה</t>
+          <t>אבו סריחאן (שבט)</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>גיל</t>
+          <t>shai</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>טייכמן</t>
+          <t>drai</t>
         </is>
       </c>
       <c r="AC2" t="b">
         <v>1</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>no comments</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AH2" t="b">
         <v>0</v>
       </c>
       <c r="AI2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0532267598</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>רווק/ה</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>זכר</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>123456789</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>מוריה 43</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>חיפה</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>אלכס</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>יזר</t>
-        </is>
-      </c>
-      <c r="AC3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
